--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ifnb1-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.058715</v>
+        <v>0.01317833333333333</v>
       </c>
       <c r="H2">
-        <v>0.176145</v>
+        <v>0.039535</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.533617</v>
+        <v>29.04796866666666</v>
       </c>
       <c r="N2">
-        <v>79.60085100000001</v>
+        <v>87.14390599999999</v>
       </c>
       <c r="O2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028098</v>
       </c>
       <c r="P2">
-        <v>0.2094724282508749</v>
+        <v>0.2371972210028099</v>
       </c>
       <c r="Q2">
-        <v>1.557921322155</v>
+        <v>0.3828038137455555</v>
       </c>
       <c r="R2">
-        <v>14.021291899395</v>
+        <v>3.445234323709999</v>
       </c>
       <c r="S2">
-        <v>0.2094724282508749</v>
+        <v>0.04858931554555816</v>
       </c>
       <c r="T2">
-        <v>0.2094724282508749</v>
+        <v>0.04858931554555817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.058715</v>
+        <v>0.01317833333333333</v>
       </c>
       <c r="H3">
-        <v>0.176145</v>
+        <v>0.039535</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.446252</v>
       </c>
       <c r="O3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="P3">
-        <v>0.2511701561316841</v>
+        <v>0.2597953978506987</v>
       </c>
       <c r="Q3">
-        <v>1.868042228726666</v>
+        <v>0.4192741747577778</v>
       </c>
       <c r="R3">
-        <v>16.81238005854</v>
+        <v>3.77346757282</v>
       </c>
       <c r="S3">
-        <v>0.2511701561316841</v>
+        <v>0.05321850108565093</v>
       </c>
       <c r="T3">
-        <v>0.2511701561316841</v>
+        <v>0.05321850108565093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.058715</v>
+        <v>0.01317833333333333</v>
       </c>
       <c r="H4">
-        <v>0.176145</v>
+        <v>0.039535</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.374809000000001</v>
+        <v>12.70280433333333</v>
       </c>
       <c r="N4">
-        <v>25.124427</v>
+        <v>38.108413</v>
       </c>
       <c r="O4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="P4">
-        <v>0.06611580989381438</v>
+        <v>0.1037273869778955</v>
       </c>
       <c r="Q4">
-        <v>0.491726910435</v>
+        <v>0.1674017897727778</v>
       </c>
       <c r="R4">
-        <v>4.425542193915</v>
+        <v>1.506616107955</v>
       </c>
       <c r="S4">
-        <v>0.06611580989381438</v>
+        <v>0.02124832118722623</v>
       </c>
       <c r="T4">
-        <v>0.06611580989381438</v>
+        <v>0.02124832118722623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.058715</v>
+        <v>0.01317833333333333</v>
       </c>
       <c r="H5">
-        <v>0.176145</v>
+        <v>0.039535</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2048477437473122</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.944937</v>
+        <v>48.89716966666666</v>
       </c>
       <c r="N5">
-        <v>179.834811</v>
+        <v>146.691509</v>
       </c>
       <c r="O5">
-        <v>0.4732416057236266</v>
+        <v>0.3992799941685959</v>
       </c>
       <c r="P5">
-        <v>0.4732416057236266</v>
+        <v>0.399279994168596</v>
       </c>
       <c r="Q5">
-        <v>3.519666975955</v>
+        <v>0.6443832009238889</v>
       </c>
       <c r="R5">
-        <v>31.677002783595</v>
+        <v>5.799448808315</v>
       </c>
       <c r="S5">
-        <v>0.4732416057236266</v>
+        <v>0.08179160592887684</v>
       </c>
       <c r="T5">
-        <v>0.4732416057236266</v>
+        <v>0.08179160592887684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.051154</v>
+      </c>
+      <c r="H6">
+        <v>0.153462</v>
+      </c>
+      <c r="I6">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="J6">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>29.04796866666666</v>
+      </c>
+      <c r="N6">
+        <v>87.14390599999999</v>
+      </c>
+      <c r="O6">
+        <v>0.2371972210028098</v>
+      </c>
+      <c r="P6">
+        <v>0.2371972210028099</v>
+      </c>
+      <c r="Q6">
+        <v>1.485919789174666</v>
+      </c>
+      <c r="R6">
+        <v>13.373278102572</v>
+      </c>
+      <c r="S6">
+        <v>0.1886079054572517</v>
+      </c>
+      <c r="T6">
+        <v>0.1886079054572517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.051154</v>
+      </c>
+      <c r="H7">
+        <v>0.153462</v>
+      </c>
+      <c r="I7">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="J7">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>31.81541733333333</v>
+      </c>
+      <c r="N7">
+        <v>95.446252</v>
+      </c>
+      <c r="O7">
+        <v>0.2597953978506987</v>
+      </c>
+      <c r="P7">
+        <v>0.2597953978506987</v>
+      </c>
+      <c r="Q7">
+        <v>1.627485858269333</v>
+      </c>
+      <c r="R7">
+        <v>14.647372724424</v>
+      </c>
+      <c r="S7">
+        <v>0.2065768967650478</v>
+      </c>
+      <c r="T7">
+        <v>0.2065768967650478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.051154</v>
+      </c>
+      <c r="H8">
+        <v>0.153462</v>
+      </c>
+      <c r="I8">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="J8">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.70280433333333</v>
+      </c>
+      <c r="N8">
+        <v>38.108413</v>
+      </c>
+      <c r="O8">
+        <v>0.1037273869778955</v>
+      </c>
+      <c r="P8">
+        <v>0.1037273869778955</v>
+      </c>
+      <c r="Q8">
+        <v>0.6497992528673333</v>
+      </c>
+      <c r="R8">
+        <v>5.848193275806</v>
+      </c>
+      <c r="S8">
+        <v>0.08247906579066931</v>
+      </c>
+      <c r="T8">
+        <v>0.08247906579066933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.051154</v>
+      </c>
+      <c r="H9">
+        <v>0.153462</v>
+      </c>
+      <c r="I9">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="J9">
+        <v>0.7951522562526879</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>48.89716966666666</v>
+      </c>
+      <c r="N9">
+        <v>146.691509</v>
+      </c>
+      <c r="O9">
+        <v>0.3992799941685959</v>
+      </c>
+      <c r="P9">
+        <v>0.399279994168596</v>
+      </c>
+      <c r="Q9">
+        <v>2.501285817128666</v>
+      </c>
+      <c r="R9">
+        <v>22.511572354158</v>
+      </c>
+      <c r="S9">
+        <v>0.3174883882397191</v>
+      </c>
+      <c r="T9">
+        <v>0.3174883882397192</v>
       </c>
     </row>
   </sheetData>
